--- a/recepty.xlsx
+++ b/recepty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,41 @@
           <t>Ważna do</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Zrealizowana</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paracetamol,Warfaryna</t>
+          <t>Lisinopril</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CK1XYDE9</t>
+          <t>BLQY1A35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-06-08 13:15:46</t>
+          <t>2025-06-09 11:25:08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-08 13:15:46</t>
+          <t>2025-07-09 11:25:08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NIE</t>
         </is>
       </c>
     </row>
